--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>605191.7706933386</v>
+        <v>689257.6331314583</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6464931.541053757</v>
+        <v>8088944.869226766</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9334883.938457383</v>
+        <v>8551844.016552845</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3435331937498</v>
+        <v>39.70122005612006</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>49.14185495865132</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>17.1653387568022</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.59469128425553</v>
+        <v>34.10833718734101</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>144.2957156879709</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="G5" t="n">
-        <v>72.4277465677507</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.70122005612029</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851095</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>92.73964154763127</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>106.4735778903242</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>52.21594625443479</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6313877022741</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>47.52338052739793</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>88.29136708608851</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824772</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>146.842886239454</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>29.85116173898106</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>286.4654361897223</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>32.9795088473611</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1452,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564637</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>73.72789960985317</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>61.36917500887013</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>57.92518451681106</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.92518451681134</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.2532214802697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>87.93270968653133</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1853,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>168.1158122680962</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.92518451681089</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1935,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657076</v>
       </c>
       <c r="H18" t="n">
         <v>89.59687541851115</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.62154955555326</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.11276492133766</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>284.4297735342292</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>32.55354698821676</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>115.0138334144185</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H23" t="n">
-        <v>168.1158122680975</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>5.740935925794101</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>81.46084344268542</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>128.8771852996418</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>136.0863079882636</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>66.04849558117238</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>14.94679283899074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>254.4097077121128</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>99.59895631930623</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>53.54735467376837</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>20.95866062610972</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.176684336810255</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.686500484041744</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>114.5811558950322</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>115.0138334144183</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>168.1158122680966</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>184.148115241653</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851092</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>137.5049127231574</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>296.0128616828167</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>28.93382893561953</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>71.95935595147097</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>160.8915086215178</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>396.2429621606558</v>
       </c>
       <c r="H41" t="n">
-        <v>28.12559521766592</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.99506094022757</v>
+        <v>54.45803047044437</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>229.7965692041383</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>45.67405313867418</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>141.1446905726942</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1781.859986840531</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="C2" t="n">
-        <v>1412.897469900119</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.631771293369</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="E2" t="n">
-        <v>668.8435186951247</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="F2" t="n">
-        <v>257.8576139055171</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="G2" t="n">
-        <v>43.36919653809306</v>
+        <v>331.1605361513813</v>
       </c>
       <c r="H2" t="n">
-        <v>43.36919653809306</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232718</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="T2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="U2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="V2" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.459826904653</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="X2" t="n">
-        <v>2168.459826904653</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="Y2" t="n">
-        <v>2168.459826904653</v>
+        <v>560.6825636487957</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>669.6932427223574</v>
+        <v>353.9240526153388</v>
       </c>
       <c r="C3" t="n">
-        <v>495.2402134412304</v>
+        <v>179.4710233342118</v>
       </c>
       <c r="D3" t="n">
-        <v>495.2402134412304</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="E3" t="n">
-        <v>445.6019761092593</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="F3" t="n">
-        <v>445.6019761092593</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="G3" t="n">
-        <v>445.6019761092593</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="H3" t="n">
-        <v>445.6019761092593</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="I3" t="n">
-        <v>445.6019761092593</v>
+        <v>30.53661367296049</v>
       </c>
       <c r="J3" t="n">
-        <v>491.7863446767894</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>648.8776114216182</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>906.4287469816059</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>1226.335642450115</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>1569.118166444747</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.477412699312</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>2074.985828260213</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>2136.47107854383</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.506418045548</v>
+        <v>732.7636226483089</v>
       </c>
       <c r="T3" t="n">
-        <v>1802.796096519524</v>
+        <v>543.3438376318238</v>
       </c>
       <c r="U3" t="n">
-        <v>1574.694506652788</v>
+        <v>543.3438376318238</v>
       </c>
       <c r="V3" t="n">
-        <v>1339.542398421046</v>
+        <v>543.3438376318238</v>
       </c>
       <c r="W3" t="n">
-        <v>1085.305041692844</v>
+        <v>353.9240526153388</v>
       </c>
       <c r="X3" t="n">
-        <v>877.4535414873112</v>
+        <v>353.9240526153388</v>
       </c>
       <c r="Y3" t="n">
-        <v>669.6932427223574</v>
+        <v>353.9240526153388</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>520.2893470405991</v>
+        <v>49.45491281910462</v>
       </c>
       <c r="Q4" t="n">
-        <v>497.4664265514521</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="R4" t="n">
-        <v>388.3019303235343</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="S4" t="n">
-        <v>189.1224447077607</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.254328486386</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.291811545975</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.026112939224</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="E5" t="n">
-        <v>890.23786034098</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="F5" t="n">
-        <v>479.2519555513724</v>
+        <v>520.5803211678665</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>331.1605361513814</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>21.0337116067851</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>80.81213159058976</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>347.1218190644762</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>509.4952041123838</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>649.4845259985594</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>734.4611726020279</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>750.1023486652812</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993392</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="W5" t="n">
-        <v>2766.859418723278</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="X5" t="n">
-        <v>2393.393660462198</v>
+        <v>710.0001061843516</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.254328486386</v>
+        <v>710.0001061843516</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>67.13418877024228</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>338.7690911140249</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>512.5000587546608</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>649.2101578476356</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>739.5989987017072</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>750.1023486652807</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>676.937807626429</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>583.2614020227611</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>393.8416170062759</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>204.4218319897908</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="C7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="D7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>27.03967056230188</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="V7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="W7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="X7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.6040489720652</v>
+        <v>15.00204697330562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1715.892666966217</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.930150025805</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>1572.544009457208</v>
       </c>
       <c r="V8" t="n">
-        <v>2866.09759726723</v>
+        <v>1241.481122113637</v>
       </c>
       <c r="W8" t="n">
-        <v>2866.09759726723</v>
+        <v>888.7124668435229</v>
       </c>
       <c r="X8" t="n">
-        <v>2492.63183900615</v>
+        <v>840.7090521693835</v>
       </c>
       <c r="Y8" t="n">
-        <v>2102.492507030338</v>
+        <v>840.7090521693835</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811084</v>
+        <v>307.0054248960772</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999814</v>
+        <v>132.5523956149501</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387301</v>
+        <v>132.5523956149501</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332746</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601596</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927777</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064525</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>475.2207619161452</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="C10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>490.1366584153657</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>322.003829010384</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>171.9636155141767</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1921.870414581994</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.907897641582</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.642199034831</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E11" t="n">
-        <v>808.8539464365872</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>397.8680416469796</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V11" t="n">
-        <v>3072.075344883007</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W11" t="n">
-        <v>3072.075344883007</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X11" t="n">
-        <v>2698.609586621927</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y11" t="n">
-        <v>2308.470254646115</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5109,22 +5111,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5135,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="C13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="D13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="E13" t="n">
-        <v>128.5011820977088</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>128.5011820977088</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>128.5011820977088</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="W13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="X13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.5011820977088</v>
+        <v>699.1203903877102</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.52858457759</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C14" t="n">
-        <v>810.5660676371781</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304276</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>3013.565057492288</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V14" t="n">
-        <v>2682.502170148718</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W14" t="n">
-        <v>2329.733514878603</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X14" t="n">
-        <v>1956.267756617523</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y14" t="n">
-        <v>1566.128424641711</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="15">
@@ -5346,16 +5348,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058491</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>622.857272823456</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>475.9673253255456</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
@@ -5461,25 +5463,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181849</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181849</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308157</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367745</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D17" t="n">
-        <v>1448.172675760994</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.38442316275</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F17" t="n">
-        <v>651.3985183731427</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>236.3260682181391</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
         <v>66.5121164321834</v>
@@ -5513,25 +5515,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912079</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5543,22 +5545,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.60582160917</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.60582160917</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.14006334809</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372279</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>323.2177459073005</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>323.2177459073005</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>155.5149092820194</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>155.5149092820194</v>
       </c>
       <c r="I19" t="n">
         <v>66.5121164321834</v>
@@ -5707,16 +5709,16 @@
         <v>699.1203903877109</v>
       </c>
       <c r="V19" t="n">
-        <v>444.4359021818241</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W19" t="n">
-        <v>155.0187321448635</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X19" t="n">
-        <v>155.0187321448635</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.0187321448635</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>3121.906610713899</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X20" t="n">
-        <v>3121.906610713899</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>3202.892993671529</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>2981.126378241056</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="V22" t="n">
-        <v>804.7114165106916</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="W22" t="n">
-        <v>515.2942464737309</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="X22" t="n">
-        <v>287.3046955757135</v>
+        <v>2692.023511366699</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2175.400891308158</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.438374367746</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D23" t="n">
-        <v>1448.172675760996</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.384423162752</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F23" t="n">
-        <v>651.398518373144</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G23" t="n">
-        <v>236.3260682181405</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>3325.605821609171</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X23" t="n">
-        <v>2952.140063348092</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.00073137228</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218343</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218343</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218343</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218343</v>
+        <v>483.5567421988311</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>294.5016673302008</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218343</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218343</v>
+        <v>631.4698357812242</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1148.130683918831</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C26" t="n">
-        <v>779.1681669784198</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="D26" t="n">
-        <v>779.1681669784198</v>
+        <v>1450.534597785713</v>
       </c>
       <c r="E26" t="n">
-        <v>779.1681669784198</v>
+        <v>1064.746345187469</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>653.7604403978614</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>238.6879902428579</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6257,19 +6259,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2982.16715683353</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2651.104269489959</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2298.335614219845</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>1924.869855958765</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y26" t="n">
-        <v>1534.730523982953</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2684.163771107505</v>
+        <v>547.5526568147715</v>
       </c>
       <c r="C28" t="n">
-        <v>2684.163771107505</v>
+        <v>378.6164738868646</v>
       </c>
       <c r="D28" t="n">
-        <v>2684.163771107505</v>
+        <v>228.4998344745289</v>
       </c>
       <c r="E28" t="n">
-        <v>2684.163771107505</v>
+        <v>228.4998344745289</v>
       </c>
       <c r="F28" t="n">
-        <v>2684.163771107505</v>
+        <v>81.6098869766185</v>
       </c>
       <c r="G28" t="n">
-        <v>2617.448119005311</v>
+        <v>81.6098869766185</v>
       </c>
       <c r="H28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>3133.919937435996</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>2912.153322005523</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U28" t="n">
-        <v>2912.153322005523</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V28" t="n">
-        <v>2912.153322005523</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W28" t="n">
-        <v>2912.153322005523</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X28" t="n">
-        <v>2684.163771107505</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="Y28" t="n">
-        <v>2684.163771107505</v>
+        <v>729.2011216450112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1137.43386558517</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.43386558517</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1681669784198</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="E29" t="n">
-        <v>779.1681669784198</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>621.0752195629241</v>
       </c>
       <c r="G29" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3225.000815226033</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>2971.470338499869</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2640.407451156298</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W29" t="n">
-        <v>2287.638795886184</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X29" t="n">
-        <v>1914.173037625104</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y29" t="n">
-        <v>1524.033705649292</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>866.7987687739744</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>645.0321533435005</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U31" t="n">
-        <v>355.929286469144</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V31" t="n">
         <v>355.929286469144</v>
       </c>
       <c r="W31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1236.335336125843</v>
+        <v>2011.826014609888</v>
       </c>
       <c r="C32" t="n">
-        <v>867.3728191854311</v>
+        <v>1642.863497669476</v>
       </c>
       <c r="D32" t="n">
-        <v>867.3728191854311</v>
+        <v>1284.597799062726</v>
       </c>
       <c r="E32" t="n">
-        <v>481.5845665871869</v>
+        <v>898.8095464644816</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>487.8236416748741</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>72.75119151987053</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3323.902285766705</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3323.902285766705</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U32" t="n">
-        <v>3070.371809040541</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V32" t="n">
-        <v>2739.308921696971</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W32" t="n">
-        <v>2386.540266426856</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X32" t="n">
-        <v>2013.074508165776</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="Y32" t="n">
-        <v>1622.935176189965</v>
+        <v>2398.42585467401</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.23093222317</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.23093222317</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.23093222317</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.23093222317</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.23093222317</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.23093222317</v>
+        <v>2586.969473531282</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="V34" t="n">
-        <v>3209.430232301678</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="W34" t="n">
-        <v>2920.013062264718</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="X34" t="n">
-        <v>2692.0235113667</v>
+        <v>2754.672310156564</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.23093222317</v>
+        <v>2754.672310156564</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.35562273557</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C35" t="n">
-        <v>1320.35562273557</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>651.3985183731431</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>236.3260682181396</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>2823.329208306698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2823.329208306698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2470.560553036583</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X35" t="n">
-        <v>2097.094794775503</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y35" t="n">
-        <v>1706.955462799692</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3044.089480193526</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C37" t="n">
-        <v>2875.153297265619</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.153297265619</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.153297265619</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F37" t="n">
-        <v>2875.153297265619</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G37" t="n">
-        <v>2707.450460640337</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H37" t="n">
-        <v>2568.556609404825</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q37" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193526</v>
+        <v>3236.784902733887</v>
       </c>
       <c r="T37" t="n">
-        <v>3044.089480193526</v>
+        <v>3015.018287303413</v>
       </c>
       <c r="U37" t="n">
-        <v>3044.089480193526</v>
+        <v>2725.915420429056</v>
       </c>
       <c r="V37" t="n">
-        <v>3044.089480193526</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="W37" t="n">
-        <v>3044.089480193526</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X37" t="n">
-        <v>3044.089480193526</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y37" t="n">
-        <v>3044.089480193526</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1032.061124352532</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C38" t="n">
-        <v>663.0986074121199</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D38" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7204,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993394</v>
+        <v>3296.379731775211</v>
       </c>
       <c r="U38" t="n">
-        <v>2866.09759726723</v>
+        <v>3042.849255049048</v>
       </c>
       <c r="V38" t="n">
-        <v>2535.034709923659</v>
+        <v>2711.786367705477</v>
       </c>
       <c r="W38" t="n">
-        <v>2182.266054653545</v>
+        <v>2359.017712435363</v>
       </c>
       <c r="X38" t="n">
-        <v>1808.800296392465</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y38" t="n">
-        <v>1418.660964416653</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031477</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>139.1983345649824</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>831.0565485757129</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S40" t="n">
-        <v>831.0565485757129</v>
+        <v>3163.0891462339</v>
       </c>
       <c r="T40" t="n">
-        <v>831.0565485757129</v>
+        <v>3163.0891462339</v>
       </c>
       <c r="U40" t="n">
-        <v>831.0565485757129</v>
+        <v>3163.0891462339</v>
       </c>
       <c r="V40" t="n">
-        <v>831.0565485757129</v>
+        <v>3163.0891462339</v>
       </c>
       <c r="W40" t="n">
-        <v>541.6393785387522</v>
+        <v>2873.671976196939</v>
       </c>
       <c r="X40" t="n">
-        <v>541.6393785387522</v>
+        <v>2873.671976196939</v>
       </c>
       <c r="Y40" t="n">
-        <v>320.8467993952221</v>
+        <v>2652.879397053409</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1675.730933054507</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C41" t="n">
-        <v>1306.768416114095</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D41" t="n">
-        <v>1306.768416114095</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E41" t="n">
-        <v>920.980163515851</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F41" t="n">
-        <v>509.9942587262435</v>
+        <v>764.341133147311</v>
       </c>
       <c r="G41" t="n">
-        <v>94.92180857123992</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,13 +7411,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2788.565186649823</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W41" t="n">
-        <v>2435.796531379709</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X41" t="n">
-        <v>2062.330773118629</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y41" t="n">
-        <v>2062.330773118629</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>321.1611025578263</v>
+        <v>290.4564109463978</v>
       </c>
       <c r="C43" t="n">
-        <v>321.1611025578263</v>
+        <v>121.5202280184909</v>
       </c>
       <c r="D43" t="n">
-        <v>321.1611025578263</v>
+        <v>121.5202280184909</v>
       </c>
       <c r="E43" t="n">
-        <v>321.1611025578263</v>
+        <v>121.5202280184909</v>
       </c>
       <c r="F43" t="n">
-        <v>321.1611025578263</v>
+        <v>121.5202280184909</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7593,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V43" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W43" t="n">
-        <v>541.9536817013565</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X43" t="n">
-        <v>541.9536817013565</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y43" t="n">
-        <v>321.1611025578263</v>
+        <v>472.1048757766375</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2740.71941966821</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>410.6772566376943</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C46" t="n">
-        <v>410.6772566376943</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D46" t="n">
-        <v>260.5606172253586</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>112.6475236429654</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L46" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>920.887005818185</v>
+        <v>778.3166113003119</v>
       </c>
       <c r="V46" t="n">
-        <v>920.887005818185</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W46" t="n">
-        <v>631.4698357812244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="X46" t="n">
-        <v>631.4698357812244</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="Y46" t="n">
-        <v>410.6772566376943</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>195.2082544971604</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>199.527201649877</v>
+        <v>373.396613173938</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510928</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>108.5032254967496</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>36.29946757904885</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>132.6049059341474</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681015</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>34.57770336425619</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>77.0721030463317</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,22 +22786,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.3504585753911</v>
       </c>
       <c r="G5" t="n">
-        <v>338.4939790857027</v>
+        <v>225.5722460637377</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>129.368238939902</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.38049896054341</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>57.03060314331833</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.884010625680929</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.33818124377063</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>45.27499998310498</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.55223036870407</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>80.60642335625559</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0516539184089</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23078,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>322.2077201510711</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>69.35371336931243</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23166,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23182,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>1.772586778758381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>115.5698862839502</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>124.4562894637312</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>170.9384612922591</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23340,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>72.706063036716</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.38583990545065</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23510,7 +23512,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>236.6825798705094</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>51.26257727136449</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -23656,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>1.772586778758551</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23741,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>126.4919521192243</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23783,16 +23785,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>145.9927856228092</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.21043062638404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>8.239655488500432</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>111.4435131414762</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>157.2154783432251</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>137.1238099094095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H23" t="n">
-        <v>126.491952119223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>139.6801120971371</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>204.7509947629275</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>165.7305790876787</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>114.9088639706384</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24509,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97731267785585</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>129.80822207533</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,16 +24685,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>156.5120179413406</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>104.3190138203139</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>136.2216706576735</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>198.5902886500595</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>288.4310800505102</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.5012613041341</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>30.1738590192886</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25132,16 +25134,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>137.1238099094097</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192238</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>66.84705671724896</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>7.250102191163364</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>58.67017993786629</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25442,7 +25444,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>174.9841412040006</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>95.28746514715687</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>28.87751670992407</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>14.6787634927976</v>
       </c>
       <c r="H41" t="n">
-        <v>266.4821691696545</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>155.0307473188006</v>
+        <v>111.5677777885839</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -25840,7 +25842,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25922,10 +25924,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>97.95568926599657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>99.74699488425706</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26077,10 +26079,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>645633.2065222074</v>
+        <v>416599.111378623</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822602.4434218738</v>
+        <v>416599.1113786229</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>822602.4434218741</v>
+        <v>645633.2065222074</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.4434218738</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822602.4434218737</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822602.443421874</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822602.4434218738</v>
+        <v>822602.4434218737</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822602.4434218741</v>
+        <v>822602.443421874</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>166639.644551449</v>
+      </c>
+      <c r="C2" t="n">
+        <v>166639.6445514491</v>
+      </c>
+      <c r="D2" t="n">
         <v>258253.2826088827</v>
       </c>
-      <c r="C2" t="n">
-        <v>329040.9773687489</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>329040.977368749</v>
+      </c>
+      <c r="G2" t="n">
         <v>329040.9773687491</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>329040.9773687492</v>
+      </c>
+      <c r="I2" t="n">
         <v>329040.9773687491</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>329040.9773687492</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>329040.9773687493</v>
+      </c>
+      <c r="L2" t="n">
         <v>329040.9773687491</v>
       </c>
-      <c r="I2" t="n">
-        <v>329040.9773687494</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>329040.9773687493</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>329040.9773687492</v>
-      </c>
-      <c r="L2" t="n">
-        <v>329040.9773687492</v>
-      </c>
-      <c r="M2" t="n">
-        <v>329040.977368749</v>
-      </c>
-      <c r="N2" t="n">
-        <v>329040.9773687493</v>
       </c>
       <c r="O2" t="n">
         <v>329040.9773687492</v>
       </c>
       <c r="P2" t="n">
-        <v>329040.9773687492</v>
+        <v>329040.9773687493</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230093</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>308422.1921421495</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>371558.5249487656</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.7457669096</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376602</v>
+        <v>49064.94472854468</v>
       </c>
       <c r="K3" t="n">
-        <v>74453.08759127805</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>89743.37813127009</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>137.8001180723343</v>
+      </c>
+      <c r="C4" t="n">
+        <v>137.8001180723343</v>
+      </c>
+      <c r="D4" t="n">
         <v>384.3219252469136</v>
       </c>
-      <c r="C4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="D4" t="n">
-        <v>584.6469890061232</v>
-      </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061232</v>
@@ -26442,22 +26444,22 @@
         <v>584.6469890061232</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
         <v>584.6469890061232</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>56985.8004116136</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
-      <c r="C5" t="n">
-        <v>107933.9405613933</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831652.0064023299</v>
+        <v>-481840.8584990826</v>
       </c>
       <c r="C6" t="n">
-        <v>-87899.80232380003</v>
+        <v>109516.0440217631</v>
       </c>
       <c r="D6" t="n">
-        <v>220522.3898183498</v>
+        <v>-198888.6461210021</v>
       </c>
       <c r="E6" t="n">
+        <v>-21880.75594855981</v>
+      </c>
+      <c r="F6" t="n">
+        <v>254149.9898183492</v>
+      </c>
+      <c r="G6" t="n">
         <v>254149.9898183497</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>254149.9898183498</v>
+      </c>
+      <c r="I6" t="n">
         <v>254149.9898183497</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>205085.0450898051</v>
+      </c>
+      <c r="K6" t="n">
         <v>254149.9898183498</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>164406.6116870796</v>
+      </c>
+      <c r="M6" t="n">
+        <v>182058.6372022637</v>
+      </c>
+      <c r="N6" t="n">
+        <v>254149.9898183498</v>
+      </c>
+      <c r="O6" t="n">
         <v>254149.9898183497</v>
-      </c>
-      <c r="I6" t="n">
-        <v>254149.9898183499</v>
-      </c>
-      <c r="J6" t="n">
-        <v>112308.8640806898</v>
-      </c>
-      <c r="K6" t="n">
-        <v>179696.9022270718</v>
-      </c>
-      <c r="L6" t="n">
-        <v>254149.9898183498</v>
-      </c>
-      <c r="M6" t="n">
-        <v>254149.9898183495</v>
-      </c>
-      <c r="N6" t="n">
-        <v>254149.9898183499</v>
-      </c>
-      <c r="O6" t="n">
-        <v>254149.9898183498</v>
       </c>
       <c r="P6" t="n">
         <v>254149.9898183498</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129049</v>
+      </c>
+      <c r="C3" t="n">
+        <v>548.4699409129049</v>
+      </c>
+      <c r="D3" t="n">
         <v>853.7106645376841</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
+        <v>187.5255871663203</v>
+      </c>
+      <c r="D4" t="n">
+        <v>542.1149567261631</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>236.0660360556142</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.2407236247792</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>354.5893695598428</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261629</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598425</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>289.2864986761293</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>354.5893695598428</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761294</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258711</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32233,7 +32235,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953979</v>
       </c>
       <c r="K17" t="n">
         <v>557.281137600381</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32470,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33035,13 +33037,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095029</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953992</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808906</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.31198861839</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687116</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35963,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36683,13 +36685,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
